--- a/3-course-6-semester/operations-research/Бронников ПМ-1901 - Оптимизация производственного плана.xlsx
+++ b/3-course-6-semester/operations-research/Бронников ПМ-1901 - Оптимизация производственного плана.xlsx
@@ -5,21 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bronn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\egor\github\university\3-course-6-semester\operations-research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385CECE5-FF92-4753-9ACA-01A02F6F9289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CBA9A5-2C37-44C1-8F1A-A00A2AACD558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="4560" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тит. лист" sheetId="1" r:id="rId1"/>
     <sheet name="Данные" sheetId="2" r:id="rId2"/>
-    <sheet name="Период 1" sheetId="3" r:id="rId3"/>
-    <sheet name="Граф. реш. 1" sheetId="39" r:id="rId4"/>
-    <sheet name="Сырье" sheetId="13" state="hidden" r:id="rId5"/>
-    <sheet name="Трансп." sheetId="23" r:id="rId6"/>
-    <sheet name="Прибыль" sheetId="41" r:id="rId7"/>
+    <sheet name="Отчет о результатах 1" sheetId="42" r:id="rId3"/>
+    <sheet name="Отчет об устойчивости 1" sheetId="43" r:id="rId4"/>
+    <sheet name="Отчет о пределах 1" sheetId="44" r:id="rId5"/>
+    <sheet name="Период 1" sheetId="3" r:id="rId6"/>
+    <sheet name="Граф. реш. 1" sheetId="39" r:id="rId7"/>
+    <sheet name="Сырье" sheetId="13" state="hidden" r:id="rId8"/>
+    <sheet name="Трансп." sheetId="23" r:id="rId9"/>
+    <sheet name="Прибыль" sheetId="41" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="ansc" hidden="1">14</definedName>
@@ -28,109 +31,110 @@
     <definedName name="limcount" hidden="1">26</definedName>
     <definedName name="senc" hidden="1">14</definedName>
     <definedName name="sencount" hidden="1">41</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">'Период 1'!$B$3:$C$3</definedName>
-    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.001</definedName>
-    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'Период 1'!$B$3:$C$3</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.001</definedName>
-    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_cvg" localSheetId="9" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="8" hidden="1">0.001</definedName>
     <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_itr" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_est" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">100</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Период 1'!$D$5:$D$13</definedName>
-    <definedName name="solver_lhs1" localSheetId="6" hidden="1">Прибыль!$M$12</definedName>
-    <definedName name="solver_lhs1" localSheetId="5" hidden="1">Трансп.!$R$5:$R$9</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Период 1'!$D$5:$D$13</definedName>
-    <definedName name="solver_lhs2" localSheetId="6" hidden="1">Прибыль!$C$6:$L$6</definedName>
-    <definedName name="solver_lhs2" localSheetId="5" hidden="1">Трансп.!$C$10:$Q$10</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Период 1'!#REF!</definedName>
-    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Период 1'!#REF!</definedName>
-    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'Период 1'!#REF!</definedName>
-    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'Период 1'!#REF!</definedName>
-    <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_itr" localSheetId="9" hidden="1">100</definedName>
+    <definedName name="solver_itr" localSheetId="8" hidden="1">100</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Период 1'!$D$5:$D$13</definedName>
+    <definedName name="solver_lhs1" localSheetId="9" hidden="1">Прибыль!$M$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="8" hidden="1">Трансп.!$R$5:$R$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Период 1'!$D$5:$D$13</definedName>
+    <definedName name="solver_lhs2" localSheetId="9" hidden="1">Прибыль!$C$6:$L$6</definedName>
+    <definedName name="solver_lhs2" localSheetId="8" hidden="1">Трансп.!$C$10:$Q$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Период 1'!#REF!</definedName>
+    <definedName name="solver_lhs4" localSheetId="5" hidden="1">'Период 1'!#REF!</definedName>
+    <definedName name="solver_lhs5" localSheetId="5" hidden="1">'Период 1'!#REF!</definedName>
+    <definedName name="solver_lhs6" localSheetId="5" hidden="1">'Период 1'!#REF!</definedName>
     <definedName name="solver_lin" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Данные!$G$9</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'Период 1'!$D$4</definedName>
-    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'Период 1'!$D$4</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_pre" localSheetId="9" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="6" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel6" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Период 1'!$E$5:$E$13</definedName>
-    <definedName name="solver_rhs1" localSheetId="6" hidden="1">Прибыль!$M$13</definedName>
-    <definedName name="solver_rhs1" localSheetId="5" hidden="1">Трансп.!$S$5:$S$9</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Период 1'!$E$5:$E$13</definedName>
-    <definedName name="solver_rhs2" localSheetId="6" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="5" hidden="1">Трансп.!$C$11:$Q$11</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Период 1'!#REF!</definedName>
-    <definedName name="solver_rhs4" localSheetId="2" hidden="1">'Период 1'!#REF!</definedName>
-    <definedName name="solver_rhs5" localSheetId="2" hidden="1">'Период 1'!#REF!</definedName>
-    <definedName name="solver_rhs6" localSheetId="2" hidden="1">'Период 1'!#REF!</definedName>
-    <definedName name="solver_rlx" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="9" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="8" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">'Период 1'!$E$5:$E$13</definedName>
+    <definedName name="solver_rhs1" localSheetId="9" hidden="1">Прибыль!$M$13</definedName>
+    <definedName name="solver_rhs1" localSheetId="8" hidden="1">Трансп.!$S$5:$S$9</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">'Период 1'!$E$5:$E$13</definedName>
+    <definedName name="solver_rhs2" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="8" hidden="1">Трансп.!$C$11:$Q$11</definedName>
+    <definedName name="solver_rhs3" localSheetId="5" hidden="1">'Период 1'!#REF!</definedName>
+    <definedName name="solver_rhs4" localSheetId="5" hidden="1">'Период 1'!#REF!</definedName>
+    <definedName name="solver_rhs5" localSheetId="5" hidden="1">'Период 1'!#REF!</definedName>
+    <definedName name="solver_rhs6" localSheetId="5" hidden="1">'Период 1'!#REF!</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_sho" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="5" hidden="1">100</definedName>
-    <definedName name="solver_tol" localSheetId="2" hidden="1">0.05</definedName>
-    <definedName name="solver_tol" localSheetId="6" hidden="1">0.05</definedName>
+    <definedName name="solver_tim" localSheetId="9" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="8" hidden="1">100</definedName>
     <definedName name="solver_tol" localSheetId="5" hidden="1">0.05</definedName>
+    <definedName name="solver_tol" localSheetId="9" hidden="1">0.05</definedName>
+    <definedName name="solver_tol" localSheetId="8" hidden="1">0.05</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Граф. реш. 1'!$A$1:$H$54</definedName>
+    <definedName name="solver_ver" localSheetId="9" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="8" hidden="1">3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Граф. реш. 1'!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Данные!$A$1:$E$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Период 1'!$A$1:$J$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">Прибыль!$A$1:$M$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Период 1'!$A$1:$J$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">Прибыль!$A$1:$M$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -236,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="241">
   <si>
     <t>Печенье</t>
   </si>
@@ -1344,6 +1348,243 @@
   <si>
     <t>b2*a11-b1*a21</t>
   </si>
+  <si>
+    <t>Microsoft Excel 16.0 Отчет о результатах</t>
+  </si>
+  <si>
+    <t>Лист: [Бронников ПМ-1901 - Оптимизация производственного плана.xlsx]Период 1</t>
+  </si>
+  <si>
+    <t>Отчет создан: 15.02.2022 13:46:28</t>
+  </si>
+  <si>
+    <t>Результат: Решение найдено. Все ограничения и условия оптимальности выполнены.</t>
+  </si>
+  <si>
+    <t>Модуль поиска решения</t>
+  </si>
+  <si>
+    <t>Модуль: Поиск решения лин. задач симплекс-методом</t>
+  </si>
+  <si>
+    <t>Время решения: 0,031 секунд.</t>
+  </si>
+  <si>
+    <t>Число итераций: 3 Число подзадач: 0</t>
+  </si>
+  <si>
+    <t>Параметры поиска решения</t>
+  </si>
+  <si>
+    <t>Максимальное время 100 с,  Число итераций 100, Precision 0,000001</t>
+  </si>
+  <si>
+    <t>Максимальное число подзадач Без пределов, Максимальное число целочисленных решений Без пределов, Целочисленное отклонение 5%, Решение без целочисленных ограничений, Считать неотрицательными</t>
+  </si>
+  <si>
+    <t>Ячейка целевой функции (Максимум)</t>
+  </si>
+  <si>
+    <t>Ячейка</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Исходное значение</t>
+  </si>
+  <si>
+    <t>Окончательное значение</t>
+  </si>
+  <si>
+    <t>Ячейки переменных</t>
+  </si>
+  <si>
+    <t>Целочисленное</t>
+  </si>
+  <si>
+    <t>Ограничения</t>
+  </si>
+  <si>
+    <t>Значение ячейки</t>
+  </si>
+  <si>
+    <t>Формула</t>
+  </si>
+  <si>
+    <t>Состояние</t>
+  </si>
+  <si>
+    <t>Допуск</t>
+  </si>
+  <si>
+    <t>$D$4</t>
+  </si>
+  <si>
+    <t>Выручка Необходимо</t>
+  </si>
+  <si>
+    <t>$B$3</t>
+  </si>
+  <si>
+    <t>План Печенье</t>
+  </si>
+  <si>
+    <t>Продолжить</t>
+  </si>
+  <si>
+    <t>$C$3</t>
+  </si>
+  <si>
+    <t>План Бисквиты</t>
+  </si>
+  <si>
+    <t>$D$5</t>
+  </si>
+  <si>
+    <t>Мука Необходимо</t>
+  </si>
+  <si>
+    <t>$D$5&lt;=$E$5</t>
+  </si>
+  <si>
+    <t>Привязка</t>
+  </si>
+  <si>
+    <t>$D$6</t>
+  </si>
+  <si>
+    <t>Масло Необходимо</t>
+  </si>
+  <si>
+    <t>$D$6&lt;=$E$6</t>
+  </si>
+  <si>
+    <t>Без привязки</t>
+  </si>
+  <si>
+    <t>$D$7</t>
+  </si>
+  <si>
+    <t>Яйцо Необходимо</t>
+  </si>
+  <si>
+    <t>$D$7&lt;=$E$7</t>
+  </si>
+  <si>
+    <t>$D$8</t>
+  </si>
+  <si>
+    <t>Сахар Необходимо</t>
+  </si>
+  <si>
+    <t>$D$8&lt;=$E$8</t>
+  </si>
+  <si>
+    <t>$D$9</t>
+  </si>
+  <si>
+    <t>Труд Необходимо</t>
+  </si>
+  <si>
+    <t>$D$9&lt;=$E$9</t>
+  </si>
+  <si>
+    <t>$D$10</t>
+  </si>
+  <si>
+    <t>Оборуд. по тесту Необходимо</t>
+  </si>
+  <si>
+    <t>$D$10&lt;=$E$10</t>
+  </si>
+  <si>
+    <t>$D$11</t>
+  </si>
+  <si>
+    <t>Оборуд. по выпечке Необходимо</t>
+  </si>
+  <si>
+    <t>$D$11&lt;=$E$11</t>
+  </si>
+  <si>
+    <t>$D$12</t>
+  </si>
+  <si>
+    <t>Спрос на печенье Необходимо</t>
+  </si>
+  <si>
+    <t>$D$12&lt;=$E$12</t>
+  </si>
+  <si>
+    <t>$D$13</t>
+  </si>
+  <si>
+    <t>Спрос на бисквиты Необходимо</t>
+  </si>
+  <si>
+    <t>$D$13&lt;=$E$13</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Отчет об устойчивости</t>
+  </si>
+  <si>
+    <t>Окончательное</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Приведенн.</t>
+  </si>
+  <si>
+    <t>Стоимость</t>
+  </si>
+  <si>
+    <t>Целевая функция</t>
+  </si>
+  <si>
+    <t>Коэффициент</t>
+  </si>
+  <si>
+    <t>Допустимое</t>
+  </si>
+  <si>
+    <t>Увеличение</t>
+  </si>
+  <si>
+    <t>Уменьшение</t>
+  </si>
+  <si>
+    <t>Тень</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Ограничение</t>
+  </si>
+  <si>
+    <t>Правая сторона</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Отчет о пределах</t>
+  </si>
+  <si>
+    <t>Переменная</t>
+  </si>
+  <si>
+    <t>Нижний</t>
+  </si>
+  <si>
+    <t>Предел</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Верхний</t>
+  </si>
 </sst>
 </file>
 
@@ -1355,7 +1596,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="68" x14ac:knownFonts="1">
+  <fonts count="70" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Times New Roman Cyr"/>
@@ -1842,6 +2083,20 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="18"/>
+      <name val="Times New Roman Cyr"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1899,7 +2154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="92">
+  <borders count="97">
     <border>
       <left/>
       <right/>
@@ -3032,6 +3287,55 @@
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -3043,7 +3347,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="379">
+  <cellXfs count="385">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3064,7 +3368,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -3092,8 +3395,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3995,6 +4296,42 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4039,42 +4376,21 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -5751,7 +6067,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8363B888-D68F-4F6F-8ECE-5749712C6DA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5774,15 +6090,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>556846</xdr:colOff>
+          <xdr:colOff>552450</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>561974</xdr:colOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>28576</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6175,122 +6491,122 @@
   </sheetPr>
   <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="121" customWidth="1"/>
+    <col min="1" max="1" width="9" style="118" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" customWidth="1"/>
     <col min="3" max="17" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="351" t="s">
+      <c r="A2" s="360" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="351"/>
-      <c r="C2" s="351"/>
-      <c r="D2" s="351"/>
-      <c r="E2" s="351"/>
-      <c r="F2" s="351"/>
-      <c r="G2" s="351"/>
-      <c r="H2" s="351"/>
-      <c r="I2" s="351"/>
-      <c r="J2" s="351"/>
-      <c r="K2" s="351"/>
+      <c r="B2" s="360"/>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="360"/>
+      <c r="F2" s="360"/>
+      <c r="G2" s="360"/>
+      <c r="H2" s="360"/>
+      <c r="I2" s="360"/>
+      <c r="J2" s="360"/>
+      <c r="K2" s="360"/>
     </row>
     <row r="3" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="352" t="s">
+      <c r="A4" s="361" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="352"/>
-      <c r="C4" s="352"/>
-      <c r="D4" s="352"/>
-      <c r="E4" s="352"/>
-      <c r="F4" s="352"/>
-      <c r="G4" s="352"/>
-      <c r="H4" s="352"/>
-      <c r="I4" s="352"/>
-      <c r="J4" s="352"/>
-      <c r="K4" s="352"/>
+      <c r="B4" s="361"/>
+      <c r="C4" s="361"/>
+      <c r="D4" s="361"/>
+      <c r="E4" s="361"/>
+      <c r="F4" s="361"/>
+      <c r="G4" s="361"/>
+      <c r="H4" s="361"/>
+      <c r="I4" s="361"/>
+      <c r="J4" s="361"/>
+      <c r="K4" s="361"/>
     </row>
     <row r="5" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="122"/>
+      <c r="A5" s="119"/>
     </row>
     <row r="6" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
+      <c r="A6" s="119"/>
     </row>
     <row r="7" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="351" t="s">
+      <c r="A7" s="360" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="351"/>
-      <c r="C7" s="351"/>
-      <c r="D7" s="351"/>
-      <c r="E7" s="351"/>
-      <c r="F7" s="351"/>
-      <c r="G7" s="351"/>
-      <c r="H7" s="351"/>
-      <c r="I7" s="351"/>
-      <c r="J7" s="351"/>
-      <c r="K7" s="351"/>
+      <c r="B7" s="360"/>
+      <c r="C7" s="360"/>
+      <c r="D7" s="360"/>
+      <c r="E7" s="360"/>
+      <c r="F7" s="360"/>
+      <c r="G7" s="360"/>
+      <c r="H7" s="360"/>
+      <c r="I7" s="360"/>
+      <c r="J7" s="360"/>
+      <c r="K7" s="360"/>
     </row>
     <row r="8" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="351"/>
-      <c r="B8" s="351"/>
-      <c r="C8" s="351"/>
-      <c r="D8" s="351"/>
-      <c r="E8" s="351"/>
-      <c r="F8" s="351"/>
-      <c r="G8" s="351"/>
-      <c r="H8" s="351"/>
-      <c r="I8" s="351"/>
-      <c r="J8" s="351"/>
-      <c r="K8" s="351"/>
+      <c r="A8" s="360"/>
+      <c r="B8" s="360"/>
+      <c r="C8" s="360"/>
+      <c r="D8" s="360"/>
+      <c r="E8" s="360"/>
+      <c r="F8" s="360"/>
+      <c r="G8" s="360"/>
+      <c r="H8" s="360"/>
+      <c r="I8" s="360"/>
+      <c r="J8" s="360"/>
+      <c r="K8" s="360"/>
     </row>
     <row r="9" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:11" s="125" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="125" t="s">
+    <row r="11" spans="1:11" s="122" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="122" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="127" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="126"/>
-      <c r="C12" s="127" t="s">
+    <row r="12" spans="1:11" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="123"/>
+      <c r="C12" s="124" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="127" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="126"/>
-      <c r="C13" s="127" t="s">
+    <row r="13" spans="1:11" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="123"/>
+      <c r="C13" s="124" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="127" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="126"/>
-      <c r="C14" s="127" t="s">
+    <row r="14" spans="1:11" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="123"/>
+      <c r="C14" s="124" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="127" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="126"/>
-      <c r="C15" s="127" t="s">
+    <row r="15" spans="1:11" s="124" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="123"/>
+      <c r="C15" s="124" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="125" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="124"/>
-      <c r="B16" s="125" t="s">
+    <row r="16" spans="1:11" s="122" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="121"/>
+      <c r="B16" s="122" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="125" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="124"/>
-      <c r="B17" s="125" t="s">
+    <row r="17" spans="1:2" s="122" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="121"/>
+      <c r="B17" s="122" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6309,6 +6625,372 @@
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;LУправление операциями 
+- темы 17 - 20&amp;CРоссийско-французская программа МВА
+"Управление предприятием"&amp;RВ.П. Чернов, А.В. Чернов</oddHeader>
+    <oddFooter>&amp;A</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.83203125" style="244" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="244" customWidth="1"/>
+    <col min="3" max="12" width="9.1640625" style="244" customWidth="1"/>
+    <col min="13" max="13" width="21.1640625" style="244" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.6640625" style="244"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="366" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="366"/>
+      <c r="C1" s="366"/>
+      <c r="D1" s="366"/>
+      <c r="E1" s="366"/>
+      <c r="F1" s="366"/>
+      <c r="G1" s="366"/>
+      <c r="H1" s="366"/>
+      <c r="I1" s="366"/>
+      <c r="J1" s="366"/>
+      <c r="K1" s="366"/>
+      <c r="L1" s="366"/>
+      <c r="M1" s="243" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="374" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="375"/>
+      <c r="C2" s="278">
+        <v>1</v>
+      </c>
+      <c r="D2" s="279">
+        <v>2</v>
+      </c>
+      <c r="E2" s="279">
+        <v>3</v>
+      </c>
+      <c r="F2" s="279">
+        <v>4</v>
+      </c>
+      <c r="G2" s="279">
+        <v>5</v>
+      </c>
+      <c r="H2" s="279">
+        <v>6</v>
+      </c>
+      <c r="I2" s="279">
+        <v>7</v>
+      </c>
+      <c r="J2" s="279">
+        <v>8</v>
+      </c>
+      <c r="K2" s="279">
+        <v>9</v>
+      </c>
+      <c r="L2" s="280">
+        <v>10</v>
+      </c>
+      <c r="M2" s="245"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="373" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="243" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="281">
+        <v>-0.5</v>
+      </c>
+      <c r="D3" s="282">
+        <v>-0.3</v>
+      </c>
+      <c r="E3" s="282">
+        <v>-0.1</v>
+      </c>
+      <c r="F3" s="282">
+        <v>-0.8</v>
+      </c>
+      <c r="G3" s="282">
+        <v>-0.6</v>
+      </c>
+      <c r="H3" s="282">
+        <v>-0.7</v>
+      </c>
+      <c r="I3" s="282">
+        <v>-0.4</v>
+      </c>
+      <c r="J3" s="282">
+        <v>-0.2</v>
+      </c>
+      <c r="K3" s="282">
+        <v>-0.4</v>
+      </c>
+      <c r="L3" s="283">
+        <v>-0.1</v>
+      </c>
+      <c r="M3" s="247"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="373"/>
+      <c r="B4" s="243" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="281">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="282">
+        <v>900</v>
+      </c>
+      <c r="E4" s="282">
+        <v>800</v>
+      </c>
+      <c r="F4" s="282">
+        <v>700</v>
+      </c>
+      <c r="G4" s="282">
+        <v>600</v>
+      </c>
+      <c r="H4" s="282">
+        <v>500</v>
+      </c>
+      <c r="I4" s="282">
+        <v>400</v>
+      </c>
+      <c r="J4" s="282">
+        <v>300</v>
+      </c>
+      <c r="K4" s="282">
+        <v>200</v>
+      </c>
+      <c r="L4" s="283">
+        <v>100</v>
+      </c>
+      <c r="M4" s="247"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="246" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="243"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="249"/>
+      <c r="J5" s="249"/>
+      <c r="K5" s="249"/>
+      <c r="L5" s="250"/>
+      <c r="M5" s="247"/>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="246" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="243"/>
+      <c r="C6" s="251"/>
+      <c r="D6" s="252"/>
+      <c r="E6" s="252"/>
+      <c r="F6" s="252"/>
+      <c r="G6" s="252"/>
+      <c r="H6" s="252"/>
+      <c r="I6" s="252"/>
+      <c r="J6" s="252"/>
+      <c r="K6" s="252"/>
+      <c r="L6" s="253"/>
+      <c r="M6" s="247"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="254" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="243"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="256"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="256"/>
+      <c r="I7" s="256"/>
+      <c r="J7" s="256"/>
+      <c r="K7" s="256"/>
+      <c r="L7" s="257"/>
+      <c r="M7" s="258"/>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="259"/>
+      <c r="C8" s="367" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="368"/>
+      <c r="E8" s="368"/>
+      <c r="F8" s="368"/>
+      <c r="G8" s="368"/>
+      <c r="H8" s="368"/>
+      <c r="I8" s="368"/>
+      <c r="J8" s="368"/>
+      <c r="K8" s="368"/>
+      <c r="L8" s="369"/>
+      <c r="M8" s="260"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="246" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="243"/>
+      <c r="C9" s="284">
+        <v>200</v>
+      </c>
+      <c r="D9" s="285">
+        <v>500</v>
+      </c>
+      <c r="E9" s="285">
+        <v>100</v>
+      </c>
+      <c r="F9" s="285">
+        <v>150</v>
+      </c>
+      <c r="G9" s="285">
+        <v>450</v>
+      </c>
+      <c r="H9" s="285">
+        <v>500</v>
+      </c>
+      <c r="I9" s="285">
+        <v>170</v>
+      </c>
+      <c r="J9" s="285">
+        <v>320</v>
+      </c>
+      <c r="K9" s="285">
+        <v>550</v>
+      </c>
+      <c r="L9" s="286">
+        <v>600</v>
+      </c>
+      <c r="M9" s="247"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="261" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="262"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="263"/>
+      <c r="H10" s="263"/>
+      <c r="I10" s="263"/>
+      <c r="J10" s="263"/>
+      <c r="K10" s="263"/>
+      <c r="L10" s="264"/>
+      <c r="M10" s="258"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="246" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="243"/>
+      <c r="C11" s="265"/>
+      <c r="D11" s="266"/>
+      <c r="E11" s="266"/>
+      <c r="F11" s="266"/>
+      <c r="G11" s="266"/>
+      <c r="H11" s="267"/>
+      <c r="I11" s="267"/>
+      <c r="J11" s="267"/>
+      <c r="K11" s="267"/>
+      <c r="L11" s="247"/>
+      <c r="M11" s="287">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="261" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="259"/>
+      <c r="L12" s="268"/>
+      <c r="M12" s="258"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="261" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="269"/>
+      <c r="D13" s="270"/>
+      <c r="E13" s="270"/>
+      <c r="F13" s="270"/>
+      <c r="G13" s="270"/>
+      <c r="H13" s="270"/>
+      <c r="I13" s="270"/>
+      <c r="J13" s="270"/>
+      <c r="K13" s="270"/>
+      <c r="L13" s="271"/>
+      <c r="M13" s="288">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="274" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="272"/>
+      <c r="B14" s="273"/>
+      <c r="C14" s="370" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="371"/>
+      <c r="E14" s="371"/>
+      <c r="F14" s="371"/>
+      <c r="G14" s="371"/>
+      <c r="H14" s="371"/>
+      <c r="I14" s="371"/>
+      <c r="J14" s="371"/>
+      <c r="K14" s="371"/>
+      <c r="L14" s="372"/>
+      <c r="M14" s="289"/>
+    </row>
+    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="275"/>
+      <c r="C15" s="276"/>
+      <c r="D15" s="276"/>
+      <c r="E15" s="276"/>
+      <c r="F15" s="276"/>
+      <c r="G15" s="276"/>
+      <c r="H15" s="276"/>
+      <c r="I15" s="276"/>
+      <c r="J15" s="276"/>
+      <c r="K15" s="276"/>
+      <c r="L15" s="276"/>
+      <c r="M15" s="277"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="59" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1" headings="1" gridLines="1"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="110" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;LУправление операциями 
 - темы 17 - 20&amp;CРоссийско-французская программа МВА
@@ -6340,251 +7022,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="36" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="311" t="s">
+    <row r="2" spans="1:8" s="33" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="308" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="312"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="314"/>
-      <c r="E2" s="315"/>
-    </row>
-    <row r="3" spans="1:8" s="36" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="316" t="s">
+      <c r="B2" s="309"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="312"/>
+    </row>
+    <row r="3" spans="1:8" s="33" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="313" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="317" t="s">
+      <c r="B3" s="314" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="317" t="s">
+      <c r="C3" s="314" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="318" t="s">
+      <c r="D3" s="315" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="319" t="s">
+      <c r="E3" s="316" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="36" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="320" t="s">
+    <row r="4" spans="1:8" s="33" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="317" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="321">
+      <c r="B4" s="318">
         <v>7.6</v>
       </c>
-      <c r="C4" s="322">
+      <c r="C4" s="319">
         <v>825</v>
       </c>
-      <c r="D4" s="323">
+      <c r="D4" s="320">
         <v>0.5</v>
       </c>
-      <c r="E4" s="324">
+      <c r="E4" s="321">
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="325" t="s">
+    <row r="5" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="322" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="326">
+      <c r="B5" s="323">
         <v>44</v>
       </c>
-      <c r="C5" s="327">
+      <c r="C5" s="324">
         <v>480</v>
       </c>
-      <c r="D5" s="328">
+      <c r="D5" s="325">
         <v>0.3</v>
       </c>
-      <c r="E5" s="329">
+      <c r="E5" s="326">
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="325" t="s">
+    <row r="6" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="322" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="326">
+      <c r="B6" s="323">
         <v>16</v>
       </c>
-      <c r="C6" s="327">
+      <c r="C6" s="324">
         <v>720</v>
       </c>
-      <c r="D6" s="328">
+      <c r="D6" s="325">
         <v>0.18</v>
       </c>
-      <c r="E6" s="329">
+      <c r="E6" s="326">
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="325" t="s">
+    <row r="7" spans="1:8" s="33" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="322" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="330">
+      <c r="B7" s="327">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C7" s="327">
+      <c r="C7" s="324">
         <v>450</v>
       </c>
-      <c r="D7" s="328">
+      <c r="D7" s="325">
         <v>0.2</v>
       </c>
-      <c r="E7" s="329">
+      <c r="E7" s="326">
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="331" t="s">
+    <row r="8" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="328" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="332"/>
-      <c r="C8" s="327">
+      <c r="B8" s="329"/>
+      <c r="C8" s="324">
         <v>200</v>
       </c>
-      <c r="D8" s="328">
+      <c r="D8" s="325">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E8" s="329">
+      <c r="E8" s="326">
         <v>0.09</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="36" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="331" t="s">
+    <row r="9" spans="1:8" s="33" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="328" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="333"/>
-      <c r="C9" s="327">
+      <c r="B9" s="330"/>
+      <c r="C9" s="324">
         <v>40</v>
       </c>
-      <c r="D9" s="328">
+      <c r="D9" s="325">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E9" s="329">
+      <c r="E9" s="326">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="36" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="334" t="s">
+    <row r="10" spans="1:8" s="33" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="331" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="335"/>
-      <c r="C10" s="336">
+      <c r="B10" s="332"/>
+      <c r="C10" s="333">
         <v>40</v>
       </c>
-      <c r="D10" s="337">
+      <c r="D10" s="334">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="E10" s="324">
+      <c r="E10" s="321">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="36" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="338" t="s">
+    <row r="11" spans="1:8" s="33" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="335" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="339"/>
-      <c r="C11" s="340"/>
-      <c r="D11" s="341">
+      <c r="B11" s="336"/>
+      <c r="C11" s="337"/>
+      <c r="D11" s="338">
         <v>32</v>
       </c>
-      <c r="E11" s="342">
+      <c r="E11" s="339">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="36" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="343" t="s">
+    <row r="12" spans="1:8" s="33" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="340" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="344"/>
-      <c r="C12" s="344"/>
-      <c r="D12" s="345">
+      <c r="B12" s="341"/>
+      <c r="C12" s="341"/>
+      <c r="D12" s="342">
         <v>3000</v>
       </c>
-      <c r="E12" s="346">
+      <c r="E12" s="343">
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="36" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="347" t="s">
+    <row r="13" spans="1:8" s="33" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="344" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="348"/>
-      <c r="C13" s="348"/>
-      <c r="D13" s="349">
+      <c r="B13" s="345"/>
+      <c r="C13" s="345"/>
+      <c r="D13" s="346">
         <f>SUMPRODUCT(D4:D7,$B4:$B7)</f>
         <v>21.72</v>
       </c>
-      <c r="E13" s="350">
+      <c r="E13" s="347">
         <f>SUMPRODUCT(E4:E7,$B4:$B7)</f>
         <v>17.28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="36" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" s="36" customFormat="1" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="299" t="s">
+    <row r="14" spans="1:8" s="33" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" s="33" customFormat="1" ht="44.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="296" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="300"/>
-      <c r="C15" s="301"/>
-      <c r="D15" s="293" t="s">
+      <c r="B15" s="297"/>
+      <c r="C15" s="298"/>
+      <c r="D15" s="290" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="294"/>
-    </row>
-    <row r="16" spans="1:8" s="37" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="302" t="s">
+      <c r="E15" s="291"/>
+    </row>
+    <row r="16" spans="1:8" s="34" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="299" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="303" t="s">
+      <c r="B16" s="300" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="304" t="s">
+      <c r="C16" s="301" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="295" t="s">
+      <c r="D16" s="292" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="296" t="s">
+      <c r="E16" s="293" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="36" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="305" t="s">
+    <row r="17" spans="1:5" s="33" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="302" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="306">
+      <c r="B17" s="303">
         <v>200</v>
       </c>
-      <c r="C17" s="307">
+      <c r="C17" s="304">
         <v>25</v>
       </c>
-      <c r="D17" s="297">
+      <c r="D17" s="294">
         <v>1000</v>
       </c>
-      <c r="E17" s="298">
+      <c r="E17" s="295">
         <v>0.35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="36" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="308" t="s">
+    <row r="18" spans="1:5" s="33" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="305" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="309">
+      <c r="B18" s="306">
         <v>100</v>
       </c>
-      <c r="C18" s="310">
+      <c r="C18" s="307">
         <v>50</v>
       </c>
     </row>
@@ -6604,125 +7286,1051 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70206F45-3C00-47C6-9F94-10B510D2E1A4}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="376" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="376" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="376" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="376" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="376" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="376"/>
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="376"/>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="376"/>
+      <c r="B8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="376" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="378" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="378" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="378" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="378" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="377" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="377" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="380">
+        <v>58000</v>
+      </c>
+      <c r="E16" s="380">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="378" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="378" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="378" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="378" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="378" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="379" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="379" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="381">
+        <v>1250</v>
+      </c>
+      <c r="E21" s="381">
+        <v>1250</v>
+      </c>
+      <c r="F21" s="379" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="377" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="377" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="380">
+        <v>666.66666666666674</v>
+      </c>
+      <c r="E22" s="380">
+        <v>666.66666666666674</v>
+      </c>
+      <c r="F22" s="377" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="378" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="378" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="378" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="378" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="378" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="378" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="379" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="379" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="381">
+        <v>825</v>
+      </c>
+      <c r="E27" s="379" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27" s="379" t="s">
+        <v>195</v>
+      </c>
+      <c r="G27" s="379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="379" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="379" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28" s="381">
+        <v>415</v>
+      </c>
+      <c r="E28" s="379" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="379" t="s">
+        <v>199</v>
+      </c>
+      <c r="G28" s="379">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="379" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="379" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" s="381">
+        <v>625</v>
+      </c>
+      <c r="E29" s="379" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="379" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="379">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="379" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="379" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="381">
+        <v>450</v>
+      </c>
+      <c r="E30" s="379" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="379" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" s="379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="379" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="379" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="381">
+        <v>147.50000000000003</v>
+      </c>
+      <c r="E31" s="379" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" s="379" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" s="379">
+        <v>52.499999999999972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="379" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="379" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="381">
+        <v>22.75</v>
+      </c>
+      <c r="E32" s="379" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" s="379" t="s">
+        <v>199</v>
+      </c>
+      <c r="G32" s="379">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="379" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="379" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="381">
+        <v>19.375</v>
+      </c>
+      <c r="E33" s="379" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="379" t="s">
+        <v>199</v>
+      </c>
+      <c r="G33" s="379">
+        <v>20.625</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="379" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="379" t="s">
+        <v>216</v>
+      </c>
+      <c r="D34" s="381">
+        <v>1250</v>
+      </c>
+      <c r="E34" s="379" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" s="379" t="s">
+        <v>199</v>
+      </c>
+      <c r="G34" s="379">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="377" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" s="377" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="380">
+        <v>666.66666666666674</v>
+      </c>
+      <c r="E35" s="377" t="s">
+        <v>220</v>
+      </c>
+      <c r="F35" s="377" t="s">
+        <v>199</v>
+      </c>
+      <c r="G35" s="377">
+        <v>2333.333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D61439C-82DA-4797-8E6A-0959F545563B}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="376" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="376" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="376" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="382"/>
+      <c r="C7" s="382"/>
+      <c r="D7" s="382" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="382" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" s="382" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" s="382" t="s">
+        <v>228</v>
+      </c>
+      <c r="H7" s="382" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="383" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="383" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="383" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="383" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="383" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="383" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" s="383" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="379" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="379" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="379">
+        <v>1250</v>
+      </c>
+      <c r="E9" s="379">
+        <v>0</v>
+      </c>
+      <c r="F9" s="379">
+        <v>32</v>
+      </c>
+      <c r="G9" s="379">
+        <v>12.999999999999996</v>
+      </c>
+      <c r="H9" s="379">
+        <v>13.999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="377" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="377" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="377">
+        <v>666.66666666666674</v>
+      </c>
+      <c r="E10" s="377">
+        <v>0</v>
+      </c>
+      <c r="F10" s="377">
+        <v>27</v>
+      </c>
+      <c r="G10" s="377">
+        <v>20.999999999999996</v>
+      </c>
+      <c r="H10" s="377">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="382"/>
+      <c r="C13" s="382"/>
+      <c r="D13" s="382" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="382" t="s">
+        <v>231</v>
+      </c>
+      <c r="F13" s="382" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" s="382" t="s">
+        <v>228</v>
+      </c>
+      <c r="H13" s="382" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="383" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="383" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="383" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="383" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" s="383" t="s">
+        <v>234</v>
+      </c>
+      <c r="G14" s="383" t="s">
+        <v>229</v>
+      </c>
+      <c r="H14" s="383" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="379" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="379" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="379">
+        <v>825</v>
+      </c>
+      <c r="E15" s="379">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="F15" s="379">
+        <v>825</v>
+      </c>
+      <c r="G15" s="379">
+        <v>75.000000000000014</v>
+      </c>
+      <c r="H15" s="379">
+        <v>129.54545454545422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="379" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="379" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="379">
+        <v>415</v>
+      </c>
+      <c r="E16" s="379">
+        <v>0</v>
+      </c>
+      <c r="F16" s="379">
+        <v>480</v>
+      </c>
+      <c r="G16" s="379">
+        <v>1E+30</v>
+      </c>
+      <c r="H16" s="379">
+        <v>65.000000000000014</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="379" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="379" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="379">
+        <v>625</v>
+      </c>
+      <c r="E17" s="379">
+        <v>0</v>
+      </c>
+      <c r="F17" s="379">
+        <v>720</v>
+      </c>
+      <c r="G17" s="379">
+        <v>1E+30</v>
+      </c>
+      <c r="H17" s="379">
+        <v>94.999999999999886</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="379" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="379" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="379">
+        <v>450</v>
+      </c>
+      <c r="E18" s="379">
+        <v>43.333333333333329</v>
+      </c>
+      <c r="F18" s="379">
+        <v>450</v>
+      </c>
+      <c r="G18" s="379">
+        <v>34.756097560975562</v>
+      </c>
+      <c r="H18" s="379">
+        <v>97.500000000000014</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="379" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="379" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="379">
+        <v>147.50000000000003</v>
+      </c>
+      <c r="E19" s="379">
+        <v>0</v>
+      </c>
+      <c r="F19" s="379">
+        <v>200</v>
+      </c>
+      <c r="G19" s="379">
+        <v>1E+30</v>
+      </c>
+      <c r="H19" s="379">
+        <v>52.499999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="379" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="379" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="379">
+        <v>22.75</v>
+      </c>
+      <c r="E20" s="379">
+        <v>0</v>
+      </c>
+      <c r="F20" s="379">
+        <v>40</v>
+      </c>
+      <c r="G20" s="379">
+        <v>1E+30</v>
+      </c>
+      <c r="H20" s="379">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="379" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="379" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="379">
+        <v>19.375</v>
+      </c>
+      <c r="E21" s="379">
+        <v>0</v>
+      </c>
+      <c r="F21" s="379">
+        <v>40</v>
+      </c>
+      <c r="G21" s="379">
+        <v>1E+30</v>
+      </c>
+      <c r="H21" s="379">
+        <v>20.625</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="379" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="379" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="379">
+        <v>1250</v>
+      </c>
+      <c r="E22" s="379">
+        <v>0</v>
+      </c>
+      <c r="F22" s="379">
+        <v>3000</v>
+      </c>
+      <c r="G22" s="379">
+        <v>1E+30</v>
+      </c>
+      <c r="H22" s="379">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="377" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="377" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="377">
+        <v>666.66666666666674</v>
+      </c>
+      <c r="E23" s="377">
+        <v>0</v>
+      </c>
+      <c r="F23" s="377">
+        <v>3000</v>
+      </c>
+      <c r="G23" s="377">
+        <v>1E+30</v>
+      </c>
+      <c r="H23" s="377">
+        <v>2333.333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AA3B6D-BE5F-4B3B-AEAB-94757B505543}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="376" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="376" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="376" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="382"/>
+      <c r="C6" s="382" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="382"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="383" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="383" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="383" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="377" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="377" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="380">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="382"/>
+      <c r="C11" s="382" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="382"/>
+      <c r="F11" s="382" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="382" t="s">
+        <v>226</v>
+      </c>
+      <c r="I11" s="382" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="382" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="383" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="383" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="383" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" s="383" t="s">
+        <v>238</v>
+      </c>
+      <c r="G12" s="383" t="s">
+        <v>239</v>
+      </c>
+      <c r="I12" s="383" t="s">
+        <v>238</v>
+      </c>
+      <c r="J12" s="383" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="379" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="379" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="381">
+        <v>1250</v>
+      </c>
+      <c r="F13" s="381">
+        <v>0</v>
+      </c>
+      <c r="G13" s="381">
+        <v>18000.000000000004</v>
+      </c>
+      <c r="I13" s="381">
+        <v>1250</v>
+      </c>
+      <c r="J13" s="381">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="377" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="377" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="380">
+        <v>666.66666666666674</v>
+      </c>
+      <c r="F14" s="380">
+        <v>0</v>
+      </c>
+      <c r="G14" s="380">
+        <v>40000</v>
+      </c>
+      <c r="I14" s="380">
+        <v>666.66666666664139</v>
+      </c>
+      <c r="J14" s="380">
+        <v>57999.999999999316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="7" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.1640625" customWidth="1"/>
-    <col min="9" max="9" width="3.33203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" customWidth="1"/>
+    <col min="9" max="9" width="3.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="239" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="230" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="227" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="231"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79" t="s">
+      <c r="A2" s="75"/>
+      <c r="B2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="241" t="s">
+      <c r="G2" s="238" t="s">
         <v>127</v>
       </c>
-      <c r="H2" s="231"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="230"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="227"/>
       <c r="K2"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="217"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="214"/>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="158">
+      <c r="B3" s="155">
         <v>1250</v>
       </c>
-      <c r="C3" s="158">
+      <c r="C3" s="155">
         <v>666.66666666666674</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="233"/>
-      <c r="J3" s="220"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="217"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
+    <row r="4" spans="1:13" s="53" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="51">
         <f>Данные!D11</f>
         <v>32</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="51">
         <f>Данные!E11</f>
         <v>27</v>
       </c>
-      <c r="D4" s="164">
+      <c r="D4" s="161">
         <f>B4*B$3+C4*C$3</f>
         <v>58000</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="222" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="219" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="234" t="s">
+      <c r="I4" s="231" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="223" t="s">
+      <c r="J4" s="220" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="54"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -6741,18 +8349,18 @@
         <f>Данные!C4</f>
         <v>825</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <f>E5-D5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="224"/>
-      <c r="H5" s="225" t="s">
+      <c r="G5" s="221"/>
+      <c r="H5" s="222" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="234" t="s">
+      <c r="I5" s="231" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="226">
+      <c r="J5" s="223">
         <v>825</v>
       </c>
       <c r="K5" s="3"/>
@@ -6760,7 +8368,7 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -6779,18 +8387,18 @@
         <f>Данные!C5</f>
         <v>480</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <f t="shared" ref="F6:F13" si="1">E6-D6</f>
         <v>65</v>
       </c>
-      <c r="G6" s="224"/>
-      <c r="H6" s="225" t="s">
+      <c r="G6" s="221"/>
+      <c r="H6" s="222" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="234" t="s">
+      <c r="I6" s="231" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="226">
+      <c r="J6" s="223">
         <v>480</v>
       </c>
       <c r="K6" s="3"/>
@@ -6798,7 +8406,7 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1">
@@ -6817,18 +8425,18 @@
         <f>Данные!C6</f>
         <v>720</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="G7" s="224"/>
-      <c r="H7" s="225" t="s">
+      <c r="G7" s="221"/>
+      <c r="H7" s="222" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="234" t="s">
+      <c r="I7" s="231" t="s">
         <v>88</v>
       </c>
-      <c r="J7" s="226">
+      <c r="J7" s="223">
         <v>720</v>
       </c>
       <c r="K7" s="3"/>
@@ -6836,7 +8444,7 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -6855,18 +8463,18 @@
         <f>Данные!C7</f>
         <v>450</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="224"/>
-      <c r="H8" s="225" t="s">
+      <c r="G8" s="221"/>
+      <c r="H8" s="222" t="s">
         <v>118</v>
       </c>
-      <c r="I8" s="234" t="s">
+      <c r="I8" s="231" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="226">
+      <c r="J8" s="223">
         <v>450</v>
       </c>
       <c r="K8" s="3"/>
@@ -6874,7 +8482,7 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1">
@@ -6893,18 +8501,18 @@
         <f>Данные!C8</f>
         <v>200</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <f t="shared" si="1"/>
         <v>52.499999999999972</v>
       </c>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225" t="s">
+      <c r="G9" s="221"/>
+      <c r="H9" s="222" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="234" t="s">
+      <c r="I9" s="231" t="s">
         <v>88</v>
       </c>
-      <c r="J9" s="226">
+      <c r="J9" s="223">
         <v>200</v>
       </c>
       <c r="K9" s="3"/>
@@ -6912,7 +8520,7 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1">
@@ -6931,18 +8539,18 @@
         <f>Данные!C9</f>
         <v>40</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <f t="shared" si="1"/>
         <v>17.25</v>
       </c>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225" t="s">
+      <c r="G10" s="221"/>
+      <c r="H10" s="222" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="234" t="s">
+      <c r="I10" s="231" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="226">
+      <c r="J10" s="223">
         <v>40</v>
       </c>
       <c r="K10" s="3"/>
@@ -6950,7 +8558,7 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="1">
@@ -6969,18 +8577,18 @@
         <f>Данные!C10</f>
         <v>40</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <f t="shared" si="1"/>
         <v>20.625</v>
       </c>
-      <c r="G11" s="224"/>
-      <c r="H11" s="225" t="s">
+      <c r="G11" s="221"/>
+      <c r="H11" s="222" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="234" t="s">
+      <c r="I11" s="231" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="226">
+      <c r="J11" s="223">
         <v>40</v>
       </c>
       <c r="K11" s="3"/>
@@ -6988,7 +8596,7 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="1">
@@ -7005,18 +8613,18 @@
         <f>Данные!D12</f>
         <v>3000</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <f t="shared" si="1"/>
         <v>1750</v>
       </c>
-      <c r="G12" s="224"/>
-      <c r="H12" s="225" t="s">
+      <c r="G12" s="221"/>
+      <c r="H12" s="222" t="s">
         <v>122</v>
       </c>
-      <c r="I12" s="234" t="s">
+      <c r="I12" s="231" t="s">
         <v>88</v>
       </c>
-      <c r="J12" s="226">
+      <c r="J12" s="223">
         <v>3000</v>
       </c>
       <c r="K12" s="3"/>
@@ -7024,35 +8632,35 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>0</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>1</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <f t="shared" si="0"/>
         <v>666.66666666666674</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <f>Данные!E12</f>
         <v>3000</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <f t="shared" si="1"/>
         <v>2333.333333333333</v>
       </c>
-      <c r="G13" s="224"/>
-      <c r="H13" s="225" t="s">
+      <c r="G13" s="221"/>
+      <c r="H13" s="222" t="s">
         <v>123</v>
       </c>
-      <c r="I13" s="234" t="s">
+      <c r="I13" s="231" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="226">
+      <c r="J13" s="223">
         <v>3000</v>
       </c>
       <c r="K13" s="3"/>
@@ -7060,222 +8668,350 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="367"/>
-      <c r="G14" s="224"/>
-      <c r="H14" s="225" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="348"/>
+      <c r="G14" s="221"/>
+      <c r="H14" s="222" t="s">
         <v>124</v>
       </c>
-      <c r="I14" s="234" t="s">
+      <c r="I14" s="231" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="226">
+      <c r="J14" s="223">
         <v>0</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" s="38" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:13" s="35" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="42" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="B16" s="384">
+        <f>Данные!B4</f>
+        <v>7.6</v>
+      </c>
+      <c r="C16" s="5">
+        <f>Данные!C4</f>
+        <v>825</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <f>C16+D16</f>
+        <v>825</v>
+      </c>
+      <c r="F16" s="5">
+        <f>B$3*Данные!D4+C$3*Данные!E4</f>
+        <v>825</v>
+      </c>
+      <c r="G16" s="13">
+        <f>E16-F16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="B17" s="384">
+        <f>Данные!B5</f>
+        <v>44</v>
+      </c>
+      <c r="C17" s="5">
+        <f>Данные!C5</f>
+        <v>480</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" ref="E17:E19" si="2">C17+D17</f>
+        <v>480</v>
+      </c>
+      <c r="F17" s="5">
+        <f>B$3*Данные!D5+C$3*Данные!E5</f>
+        <v>415</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" ref="G17:G19" si="3">E17-F17</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="B18" s="384">
+        <f>Данные!B6</f>
+        <v>16</v>
+      </c>
+      <c r="C18" s="5">
+        <f>Данные!C6</f>
+        <v>720</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="F18" s="5">
+        <f>B$3*Данные!D6+C$3*Данные!E6</f>
+        <v>625</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="27"/>
-    </row>
-    <row r="20" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="B19" s="384">
+        <f>Данные!B7</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C19" s="5">
+        <f>Данные!C7</f>
+        <v>450</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="F19" s="5">
+        <f>B$3*Данные!D7+C$3*Данные!E7</f>
+        <v>450</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26">
+        <f>SUMPRODUCT($B16:$B19,C16:C19)</f>
+        <v>43050</v>
+      </c>
+      <c r="D20" s="26">
+        <f t="shared" ref="D20:G20" si="4">SUMPRODUCT($B16:$B19,D16:D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="26">
+        <f t="shared" si="4"/>
+        <v>43050</v>
+      </c>
+      <c r="F20" s="26">
+        <f t="shared" si="4"/>
+        <v>38670</v>
+      </c>
+      <c r="G20" s="27">
+        <f t="shared" si="4"/>
+        <v>4380</v>
+      </c>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:9" s="62" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
+    <row r="22" spans="1:21" s="59" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="72" t="s">
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
-      <c r="I22" s="235"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="I22" s="232"/>
+    </row>
+    <row r="23" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="73" t="s">
+      <c r="B23" s="38"/>
+      <c r="C23" s="64">
+        <f>D4</f>
+        <v>58000</v>
+      </c>
+      <c r="D23" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
-    </row>
-    <row r="24" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="74" t="s">
+      <c r="B24" s="49"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="46"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="43">
+        <f>4*Данные!D17</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" s="37" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="74" t="s">
+      <c r="C25" s="64">
+        <f>Данные!B17*Данные!C17</f>
+        <v>5000</v>
+      </c>
+      <c r="D25" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="48"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="45">
+        <f>C29-G24</f>
+        <v>48538.875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="75" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="66">
+        <f>ROUNDUP(MAX(D9-Данные!B17,0),0)*Данные!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50"/>
-    </row>
-    <row r="27" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="37" t="s">
         <v>59</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="74" t="s">
+      <c r="C27" s="64">
+        <f>SUM(E16:E19,G16:G19)/2*Данные!E17</f>
+        <v>461.12499999999994</v>
+      </c>
+      <c r="D27" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="46"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="43">
+        <f>G20</f>
+        <v>4380</v>
+      </c>
       <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
+      <c r="M27"/>
+      <c r="P27"/>
+    </row>
+    <row r="28" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="76" t="s">
+      <c r="B28" s="63"/>
+      <c r="C28" s="67">
+        <f>SUM(C25:C27)</f>
+        <v>5461.125</v>
+      </c>
+      <c r="D28" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="47"/>
-    </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="44">
+        <f>G25</f>
+        <v>48538.875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="77" t="s">
+      <c r="B29" s="62"/>
+      <c r="C29" s="68">
+        <f>C23-C28</f>
+        <v>52538.875</v>
+      </c>
+      <c r="D29" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="57"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="54">
+        <f>SUM(G27:G28)</f>
+        <v>52918.875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
     </row>
   </sheetData>
   <phoneticPr fontId="27" type="noConversion"/>
@@ -7301,20 +9037,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="35" customWidth="1"/>
     <col min="2" max="3" width="11.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" customWidth="1"/>
@@ -7324,7 +9060,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="146" t="s">
         <v>100</v>
       </c>
       <c r="B1" s="2"/>
@@ -7335,524 +9071,554 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:9" s="155" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+    <row r="2" spans="1:9" s="152" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="147" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="151" t="str">
+      <c r="B2" s="148" t="str">
         <f>Данные!D3</f>
         <v>В 1 кг 
 Печенья</v>
       </c>
-      <c r="C2" s="151" t="str">
+      <c r="C2" s="148" t="str">
         <f>Данные!E3</f>
         <v>В 1 кг 
 Бисквитов</v>
       </c>
-      <c r="D2" s="161" t="s">
+      <c r="D2" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="152" t="s">
+      <c r="E2" s="149" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152" t="s">
+      <c r="F2" s="149"/>
+      <c r="G2" s="149" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="153"/>
-    </row>
-    <row r="3" spans="1:9" s="155" customFormat="1" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="156" t="str">
+      <c r="H2" s="150"/>
+    </row>
+    <row r="3" spans="1:9" s="152" customFormat="1" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="153" t="str">
         <f>'Период 1'!A4</f>
         <v>Выручка</v>
       </c>
-      <c r="B3" s="128">
+      <c r="B3" s="125">
         <f>'Период 1'!B4</f>
         <v>32</v>
       </c>
-      <c r="C3" s="128">
+      <c r="C3" s="125">
         <f>'Период 1'!C4</f>
         <v>27</v>
       </c>
-      <c r="D3" s="162">
+      <c r="D3" s="159">
         <f>C22*C21</f>
         <v>58000</v>
       </c>
-      <c r="E3" s="134">
+      <c r="E3" s="131">
         <f>D3/B3</f>
         <v>1812.5</v>
       </c>
-      <c r="F3" s="128">
+      <c r="F3" s="125">
         <v>0</v>
       </c>
-      <c r="G3" s="133">
+      <c r="G3" s="130">
         <v>0</v>
       </c>
-      <c r="H3" s="136">
+      <c r="H3" s="133">
         <f>D3/C3</f>
         <v>2148.1481481481483</v>
       </c>
-      <c r="I3" s="147"/>
+      <c r="I3" s="144"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="156" t="str">
+      <c r="A4" s="153" t="str">
         <f>'Период 1'!A5</f>
         <v>Мука</v>
       </c>
-      <c r="B4" s="128">
+      <c r="B4" s="125">
         <f>'Период 1'!B5</f>
         <v>0.5</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="125">
         <f>'Период 1'!C5</f>
         <v>0.3</v>
       </c>
-      <c r="D4" s="128">
+      <c r="D4" s="125">
         <f>'Период 1'!E5</f>
         <v>825</v>
       </c>
-      <c r="E4" s="134">
+      <c r="E4" s="131">
         <f>D4/B4</f>
         <v>1650</v>
       </c>
-      <c r="F4" s="128">
+      <c r="F4" s="125">
         <v>0</v>
       </c>
-      <c r="G4" s="133">
+      <c r="G4" s="130">
         <v>0</v>
       </c>
-      <c r="H4" s="136">
+      <c r="H4" s="133">
         <f>D4/C4</f>
         <v>2750</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="156" t="str">
+      <c r="A5" s="153" t="str">
         <f>'Период 1'!A6</f>
         <v>Масло</v>
       </c>
-      <c r="B5" s="128">
+      <c r="B5" s="125">
         <f>'Период 1'!B6</f>
         <v>0.3</v>
       </c>
-      <c r="C5" s="128">
+      <c r="C5" s="125">
         <f>'Период 1'!C6</f>
         <v>0.06</v>
       </c>
-      <c r="D5" s="128">
+      <c r="D5" s="125">
         <f>'Период 1'!E6</f>
         <v>480</v>
       </c>
-      <c r="E5" s="134">
+      <c r="E5" s="131">
         <f t="shared" ref="E5:E10" si="0">D5/B5</f>
         <v>1600</v>
       </c>
-      <c r="F5" s="128">
+      <c r="F5" s="125">
         <v>0</v>
       </c>
-      <c r="G5" s="133">
+      <c r="G5" s="130">
         <v>0</v>
       </c>
-      <c r="H5" s="136">
+      <c r="H5" s="133">
         <f t="shared" ref="H5:H10" si="1">D5/C5</f>
         <v>8000</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="156" t="str">
+      <c r="A6" s="153" t="str">
         <f>'Период 1'!A7</f>
         <v>Яйцо</v>
       </c>
-      <c r="B6" s="128">
+      <c r="B6" s="125">
         <f>'Период 1'!B7</f>
         <v>0.18</v>
       </c>
-      <c r="C6" s="128">
+      <c r="C6" s="125">
         <f>'Период 1'!C7</f>
         <v>0.6</v>
       </c>
-      <c r="D6" s="128">
+      <c r="D6" s="125">
         <f>'Период 1'!E7</f>
         <v>720</v>
       </c>
-      <c r="E6" s="134">
+      <c r="E6" s="131">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="F6" s="128">
+      <c r="F6" s="125">
         <v>0</v>
       </c>
-      <c r="G6" s="133">
+      <c r="G6" s="130">
         <v>0</v>
       </c>
-      <c r="H6" s="136">
+      <c r="H6" s="133">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="156" t="str">
+      <c r="A7" s="153" t="str">
         <f>'Период 1'!A8</f>
         <v>Сахар</v>
       </c>
-      <c r="B7" s="128">
+      <c r="B7" s="125">
         <f>'Период 1'!B8</f>
         <v>0.2</v>
       </c>
-      <c r="C7" s="128">
+      <c r="C7" s="125">
         <f>'Период 1'!C8</f>
         <v>0.3</v>
       </c>
-      <c r="D7" s="128">
+      <c r="D7" s="125">
         <f>'Период 1'!E8</f>
         <v>450</v>
       </c>
-      <c r="E7" s="134">
+      <c r="E7" s="131">
         <f t="shared" si="0"/>
         <v>2250</v>
       </c>
-      <c r="F7" s="128">
+      <c r="F7" s="125">
         <v>0</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="130">
         <v>0</v>
       </c>
-      <c r="H7" s="136">
+      <c r="H7" s="133">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="156" t="str">
+      <c r="A8" s="153" t="str">
         <f>'Период 1'!A9</f>
         <v>Труд</v>
       </c>
-      <c r="B8" s="128">
+      <c r="B8" s="125">
         <f>'Период 1'!B9</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C8" s="128">
+      <c r="C8" s="125">
         <f>'Период 1'!C9</f>
         <v>0.09</v>
       </c>
-      <c r="D8" s="128">
+      <c r="D8" s="125">
         <f>'Период 1'!E9</f>
         <v>200</v>
       </c>
-      <c r="E8" s="134">
+      <c r="E8" s="131">
         <f t="shared" si="0"/>
         <v>2857.1428571428569</v>
       </c>
-      <c r="F8" s="128">
+      <c r="F8" s="125">
         <v>0</v>
       </c>
-      <c r="G8" s="133">
+      <c r="G8" s="130">
         <v>0</v>
       </c>
-      <c r="H8" s="136">
+      <c r="H8" s="133">
         <f t="shared" si="1"/>
         <v>2222.2222222222222</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="156" t="str">
+      <c r="A9" s="153" t="str">
         <f>'Период 1'!A10</f>
         <v>Оборуд. по тесту</v>
       </c>
-      <c r="B9" s="128">
+      <c r="B9" s="125">
         <f>'Период 1'!B10</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C9" s="128">
+      <c r="C9" s="125">
         <f>'Период 1'!C10</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D9" s="128">
+      <c r="D9" s="125">
         <f>'Период 1'!E10</f>
         <v>40</v>
       </c>
-      <c r="E9" s="134">
+      <c r="E9" s="131">
         <f t="shared" si="0"/>
         <v>2666.666666666667</v>
       </c>
-      <c r="F9" s="128">
+      <c r="F9" s="125">
         <v>0</v>
       </c>
-      <c r="G9" s="133">
+      <c r="G9" s="130">
         <v>0</v>
       </c>
-      <c r="H9" s="136">
+      <c r="H9" s="133">
         <f t="shared" si="1"/>
         <v>6666.666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="157" t="str">
+      <c r="A10" s="154" t="str">
         <f>'Период 1'!A11</f>
         <v>Оборуд. по выпечке</v>
       </c>
-      <c r="B10" s="129">
+      <c r="B10" s="126">
         <f>'Период 1'!B11</f>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="C10" s="129">
+      <c r="C10" s="126">
         <f>'Период 1'!C11</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D10" s="129">
+      <c r="D10" s="126">
         <f>'Период 1'!E11</f>
         <v>40</v>
       </c>
-      <c r="E10" s="132">
+      <c r="E10" s="129">
         <f t="shared" si="0"/>
         <v>5333.3333333333339</v>
       </c>
-      <c r="F10" s="129">
+      <c r="F10" s="126">
         <v>0</v>
       </c>
-      <c r="G10" s="135">
+      <c r="G10" s="132">
         <v>0</v>
       </c>
-      <c r="H10" s="137">
+      <c r="H10" s="134">
         <f t="shared" si="1"/>
         <v>2666.666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="156" t="str">
+      <c r="A11" s="153" t="str">
         <f>'Период 1'!A12</f>
         <v>Спрос на печенье</v>
       </c>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="136"/>
+      <c r="B11" s="125">
+        <f>'Период 1'!B12</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="125">
+        <f>'Период 1'!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="125">
+        <f>'Период 1'!E12</f>
+        <v>3000</v>
+      </c>
+      <c r="E11" s="131"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="133"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="157" t="str">
+      <c r="A12" s="154" t="str">
         <f>'Период 1'!A13</f>
         <v>Спрос на бисквиты</v>
       </c>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="137"/>
+      <c r="B12" s="126">
+        <f>'Период 1'!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="126">
+        <f>'Период 1'!C13</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="126">
+        <f>'Период 1'!E13</f>
+        <v>3000</v>
+      </c>
+      <c r="E12" s="129"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="134"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="156" t="s">
+      <c r="A13" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="128"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="228"/>
+      <c r="B13" s="125">
+        <v>1</v>
+      </c>
+      <c r="C13" s="125">
+        <v>0</v>
+      </c>
+      <c r="D13" s="125">
+        <v>0</v>
+      </c>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="225"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="229" t="s">
+      <c r="A14" s="226" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="131"/>
+      <c r="B14" s="127">
+        <v>0</v>
+      </c>
+      <c r="C14" s="127">
+        <v>1</v>
+      </c>
+      <c r="D14" s="127">
+        <v>0</v>
+      </c>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="128"/>
     </row>
     <row r="15" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="227"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
+      <c r="A15" s="224"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="243" t="s">
+      <c r="A16" s="240" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="213" t="s">
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="210" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="145"/>
-      <c r="H16" s="146"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="143"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="244" t="s">
+      <c r="A17" s="241" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="213" t="s">
+      <c r="B17" s="210" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="145"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="353" t="s">
+      <c r="C17" s="142"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="362" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="214" t="s">
+      <c r="G17" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="159">
-        <f>(D18*C19-D19*C18)/(B18*C19-B19*C18)</f>
+      <c r="H17" s="156">
+        <f ca="1">(D18*C19-D19*C18)/(B18*C19-B19*C18)</f>
         <v>1250</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="148" t="s">
+      <c r="A18" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="138">
-        <f>B4</f>
+      <c r="B18" s="135">
+        <f ca="1">OFFSET(B$3,MATCH($A18,$A$4:$A$14,0),0)</f>
         <v>0.5</v>
       </c>
-      <c r="C18" s="139">
-        <f t="shared" ref="C18:D18" si="2">C4</f>
+      <c r="C18" s="136">
+        <f t="shared" ref="C18:D20" ca="1" si="2">OFFSET(C$3,MATCH($A18,$A$4:$A$14,0),0)</f>
         <v>0.3</v>
       </c>
-      <c r="D18" s="140">
-        <f t="shared" si="2"/>
+      <c r="D18" s="137">
+        <f t="shared" ca="1" si="2"/>
         <v>825</v>
       </c>
-      <c r="E18" s="128"/>
-      <c r="F18" s="354"/>
-      <c r="G18" s="215" t="s">
+      <c r="E18" s="125"/>
+      <c r="F18" s="363"/>
+      <c r="G18" s="212" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="160">
-        <f>(D19*B18-D18*B19)/(C19*B18-C18*B19)</f>
+      <c r="H18" s="157">
+        <f ca="1">(D19*B18-D18*B19)/(C19*B18-C18*B19)</f>
         <v>666.66666666666674</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="148" t="s">
+      <c r="A19" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="141">
-        <f>B7</f>
+      <c r="B19" s="138">
+        <f ca="1">OFFSET(B$3,MATCH($A19,$A$4:$A$14,0),0)</f>
         <v>0.2</v>
       </c>
-      <c r="C19" s="142">
-        <f t="shared" ref="C19:D19" si="3">C7</f>
+      <c r="C19" s="139">
+        <f t="shared" ca="1" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="D19" s="143">
-        <f t="shared" si="3"/>
+      <c r="D19" s="140">
+        <f t="shared" ca="1" si="2"/>
         <v>450</v>
       </c>
-      <c r="E19" s="128"/>
-      <c r="F19" s="238" t="s">
+      <c r="E19" s="125"/>
+      <c r="F19" s="235" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="239" t="s">
+      <c r="G19" s="236" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="240">
-        <f>B3*H17+C3*H18</f>
+      <c r="H19" s="237">
+        <f ca="1">B3*H17+C3*H18</f>
         <v>58000</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="E20" s="128"/>
+      <c r="E20" s="125"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="212" t="s">
+      <c r="A21" s="209" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="144"/>
-      <c r="C21" s="163">
+      <c r="B21" s="141"/>
+      <c r="C21" s="160">
         <v>1000</v>
       </c>
-      <c r="F21" s="237" t="s">
+      <c r="F21" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="G21" s="211"/>
-      <c r="H21" s="211"/>
+      <c r="G21" s="208"/>
+      <c r="H21" s="208"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="212" t="s">
+      <c r="A22" s="209" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="144"/>
-      <c r="C22" s="245">
+      <c r="B22" s="141"/>
+      <c r="C22" s="242">
         <v>58</v>
       </c>
-      <c r="E22" s="128"/>
+      <c r="E22" s="125"/>
     </row>
     <row r="23" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
-      <c r="E23" s="128"/>
+      <c r="E23" s="125"/>
     </row>
     <row r="25" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="368" t="s">
+      <c r="B26" s="349" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="369" t="s">
+      <c r="C26" s="350" t="s">
         <v>153</v>
       </c>
-      <c r="D26" s="370" t="s">
+      <c r="D26" s="351" t="s">
         <v>154</v>
       </c>
-      <c r="E26" s="374" t="s">
+      <c r="E26" s="355" t="s">
         <v>156</v>
       </c>
-      <c r="F26" s="376" t="s">
+      <c r="F26" s="357" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="371" t="s">
+      <c r="B27" s="352" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="372" t="s">
+      <c r="C27" s="353" t="s">
         <v>156</v>
       </c>
-      <c r="D27" s="373" t="s">
+      <c r="D27" s="354" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="374" t="s">
+      <c r="E27" s="355" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="376" t="s">
+      <c r="F27" s="357" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="375" t="s">
+      <c r="B29" s="356" t="s">
         <v>158</v>
       </c>
-      <c r="C29" s="375">
+      <c r="C29" s="356">
         <v>0</v>
       </c>
-      <c r="D29" s="375" t="s">
+      <c r="D29" s="356" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="377">
+      <c r="B30" s="358">
         <v>0</v>
       </c>
-      <c r="C30" s="378" t="s">
+      <c r="C30" s="359" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="378" t="s">
+      <c r="D30" s="359" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7861,6 +9627,11 @@
     <mergeCell ref="F17:F18"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Неправильно" error="Есть только параметры:_x000a_Мука;_x000a_Яйцо;_x000a_Сахар;_x000a_Труд;_x000a_Оборуд. по тесту;_x000a_Оборуд. по выпечке;" promptTitle="Параметры" prompt="Мука;_x000a_Яйцо;_x000a_Сахар;_x000a_Труд;_x000a_Оборуд. по тесту;_x000a_Оборуд. по выпечке;" sqref="A18:A19" xr:uid="{C06C6FE2-AF36-4647-A0D0-A297EF38AC94}">
+      <formula1>$A$4:$A$14</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1" headings="1" gridLines="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7903,7 +9674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -7924,162 +9695,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="89"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="42" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="180"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="177"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="180"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="177"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="179" t="s">
+      <c r="A5" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="180"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="177"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="179" t="s">
+      <c r="A6" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="181"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="178"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="182"/>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="184" t="s">
+      <c r="A7" s="179"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="185"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="186"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="183"/>
     </row>
     <row r="8" spans="1:8" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="190" t="s">
+      <c r="G9" s="187" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="191" t="s">
+      <c r="H9" s="188" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="167" t="s">
+      <c r="A10" s="164" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="189"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="186"/>
     </row>
     <row r="11" spans="1:8" ht="27.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="170" t="s">
+      <c r="A11" s="167" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="165"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="171"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="168"/>
     </row>
     <row r="12" spans="1:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="173"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="175"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="172"/>
     </row>
   </sheetData>
   <phoneticPr fontId="27" type="noConversion"/>
@@ -8095,7 +9866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T19"/>
   <sheetViews>
@@ -8105,596 +9876,596 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="94" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="96" customWidth="1"/>
-    <col min="3" max="17" width="6.6640625" style="96" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" style="96" customWidth="1"/>
-    <col min="19" max="19" width="16.83203125" style="96" customWidth="1"/>
-    <col min="20" max="20" width="9.1640625" style="94" customWidth="1"/>
-    <col min="21" max="21" width="9" style="94" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="94"/>
+    <col min="1" max="1" width="7.1640625" style="91" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="93" customWidth="1"/>
+    <col min="3" max="17" width="6.6640625" style="93" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" style="93" customWidth="1"/>
+    <col min="19" max="19" width="16.83203125" style="93" customWidth="1"/>
+    <col min="20" max="20" width="9.1640625" style="91" customWidth="1"/>
+    <col min="21" max="21" width="9" style="91" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="91"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="193" t="s">
+    <row r="1" spans="1:20" s="87" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="190" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="193"/>
-      <c r="R1" s="193"/>
-      <c r="S1" s="193"/>
-      <c r="T1" s="193"/>
-    </row>
-    <row r="2" spans="1:20" s="90" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="91" t="s">
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190"/>
+    </row>
+    <row r="2" spans="1:20" s="87" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-    </row>
-    <row r="3" spans="1:20" s="90" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="192"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="356" t="s">
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+    </row>
+    <row r="3" spans="1:20" s="87" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="189"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="365" t="s">
         <v>76</v>
       </c>
-      <c r="S3" s="356"/>
-      <c r="T3" s="356"/>
+      <c r="S3" s="365"/>
+      <c r="T3" s="365"/>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="195"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="195"/>
-      <c r="H4" s="195"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="195"/>
-      <c r="L4" s="195"/>
-      <c r="M4" s="195"/>
-      <c r="N4" s="195"/>
-      <c r="O4" s="195"/>
-      <c r="P4" s="195"/>
-      <c r="Q4" s="195"/>
-      <c r="R4" s="209" t="s">
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="192"/>
+      <c r="M4" s="192"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="192"/>
+      <c r="P4" s="192"/>
+      <c r="Q4" s="192"/>
+      <c r="R4" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="S4" s="210" t="s">
+      <c r="S4" s="207" t="s">
         <v>78</v>
       </c>
-      <c r="T4" s="207" t="s">
+      <c r="T4" s="204" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="198"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
-      <c r="L5" s="199"/>
-      <c r="M5" s="199"/>
-      <c r="N5" s="199"/>
-      <c r="O5" s="199"/>
-      <c r="P5" s="199"/>
-      <c r="Q5" s="200"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="97">
+      <c r="C5" s="195"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="196"/>
+      <c r="K5" s="196"/>
+      <c r="L5" s="196"/>
+      <c r="M5" s="196"/>
+      <c r="N5" s="196"/>
+      <c r="O5" s="196"/>
+      <c r="P5" s="196"/>
+      <c r="Q5" s="197"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="94">
         <v>1800</v>
       </c>
-      <c r="T5" s="98"/>
+      <c r="T5" s="95"/>
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="201"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="197"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="197"/>
-      <c r="O6" s="197"/>
-      <c r="P6" s="197"/>
-      <c r="Q6" s="202"/>
-      <c r="R6" s="194"/>
-      <c r="S6" s="100">
+      <c r="C6" s="198"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="194"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="194"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="199"/>
+      <c r="R6" s="191"/>
+      <c r="S6" s="97">
         <v>1200</v>
       </c>
-      <c r="T6" s="101"/>
+      <c r="T6" s="98"/>
     </row>
     <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="201"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="197"/>
-      <c r="L7" s="197"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="197"/>
-      <c r="O7" s="197"/>
-      <c r="P7" s="197"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="194"/>
-      <c r="S7" s="100">
+      <c r="C7" s="198"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="194"/>
+      <c r="L7" s="194"/>
+      <c r="M7" s="194"/>
+      <c r="N7" s="194"/>
+      <c r="O7" s="194"/>
+      <c r="P7" s="194"/>
+      <c r="Q7" s="199"/>
+      <c r="R7" s="191"/>
+      <c r="S7" s="97">
         <v>4000</v>
       </c>
-      <c r="T7" s="101"/>
+      <c r="T7" s="98"/>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="201"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="197"/>
-      <c r="K8" s="197"/>
-      <c r="L8" s="197"/>
-      <c r="M8" s="197"/>
-      <c r="N8" s="197"/>
-      <c r="O8" s="197"/>
-      <c r="P8" s="197"/>
-      <c r="Q8" s="202"/>
-      <c r="R8" s="194"/>
-      <c r="S8" s="100">
+      <c r="C8" s="198"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="194"/>
+      <c r="O8" s="194"/>
+      <c r="P8" s="194"/>
+      <c r="Q8" s="199"/>
+      <c r="R8" s="191"/>
+      <c r="S8" s="97">
         <v>300</v>
       </c>
-      <c r="T8" s="101"/>
+      <c r="T8" s="98"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="203"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="204"/>
-      <c r="K9" s="204"/>
-      <c r="L9" s="204"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="204"/>
-      <c r="P9" s="204"/>
-      <c r="Q9" s="205"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="103">
+      <c r="C9" s="200"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="201"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="201"/>
+      <c r="O9" s="201"/>
+      <c r="P9" s="201"/>
+      <c r="Q9" s="202"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="100">
         <v>4500</v>
       </c>
-      <c r="T9" s="104"/>
+      <c r="T9" s="101"/>
     </row>
     <row r="10" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="355" t="s">
+      <c r="A10" s="364" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="207" t="s">
+      <c r="B10" s="204" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="194"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="194"/>
-      <c r="L10" s="194"/>
-      <c r="M10" s="194"/>
-      <c r="N10" s="194"/>
-      <c r="O10" s="194"/>
-      <c r="P10" s="194"/>
-      <c r="Q10" s="196"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="107"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="191"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="191"/>
+      <c r="G10" s="191"/>
+      <c r="H10" s="191"/>
+      <c r="I10" s="191"/>
+      <c r="J10" s="191"/>
+      <c r="K10" s="191"/>
+      <c r="L10" s="191"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="191"/>
+      <c r="O10" s="191"/>
+      <c r="P10" s="191"/>
+      <c r="Q10" s="193"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="104"/>
     </row>
     <row r="11" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="355"/>
-      <c r="B11" s="208" t="s">
+      <c r="A11" s="364"/>
+      <c r="B11" s="205" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="108">
+      <c r="C11" s="105">
         <v>720</v>
       </c>
-      <c r="D11" s="100">
+      <c r="D11" s="97">
         <v>850</v>
       </c>
-      <c r="E11" s="100">
+      <c r="E11" s="97">
         <v>1150</v>
       </c>
-      <c r="F11" s="100">
+      <c r="F11" s="97">
         <v>230</v>
       </c>
-      <c r="G11" s="100">
+      <c r="G11" s="97">
         <v>530</v>
       </c>
-      <c r="H11" s="100">
+      <c r="H11" s="97">
         <v>410</v>
       </c>
-      <c r="I11" s="100">
+      <c r="I11" s="97">
         <v>480</v>
       </c>
-      <c r="J11" s="100">
+      <c r="J11" s="97">
         <v>590</v>
       </c>
-      <c r="K11" s="100">
+      <c r="K11" s="97">
         <v>1230</v>
       </c>
-      <c r="L11" s="100">
+      <c r="L11" s="97">
         <v>960</v>
       </c>
-      <c r="M11" s="100">
+      <c r="M11" s="97">
         <v>880</v>
       </c>
-      <c r="N11" s="100">
+      <c r="N11" s="97">
         <v>550</v>
       </c>
-      <c r="O11" s="100">
+      <c r="O11" s="97">
         <v>710</v>
       </c>
-      <c r="P11" s="100">
+      <c r="P11" s="97">
         <v>400</v>
       </c>
-      <c r="Q11" s="109">
+      <c r="Q11" s="106">
         <v>1310</v>
       </c>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="107"/>
-    </row>
-    <row r="12" spans="1:20" s="96" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="355"/>
-      <c r="B12" s="207" t="s">
+      <c r="R11" s="103"/>
+      <c r="S11" s="103"/>
+      <c r="T11" s="104"/>
+    </row>
+    <row r="12" spans="1:20" s="93" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="364"/>
+      <c r="B12" s="204" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="106"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="108"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="103"/>
+      <c r="T12" s="103"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="206" t="s">
+      <c r="C14" s="203" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="206"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="206"/>
-      <c r="G14" s="206"/>
-      <c r="H14" s="206"/>
-      <c r="I14" s="206"/>
-      <c r="J14" s="206"/>
-      <c r="K14" s="206"/>
-      <c r="L14" s="206"/>
-      <c r="M14" s="206"/>
-      <c r="N14" s="206"/>
-      <c r="O14" s="206"/>
-      <c r="P14" s="206"/>
-      <c r="Q14" s="206"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="203"/>
+      <c r="H14" s="203"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="203"/>
+      <c r="K14" s="203"/>
+      <c r="L14" s="203"/>
+      <c r="M14" s="203"/>
+      <c r="N14" s="203"/>
+      <c r="O14" s="203"/>
+      <c r="P14" s="203"/>
+      <c r="Q14" s="203"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="112">
+      <c r="C15" s="109">
         <v>16</v>
       </c>
-      <c r="D15" s="113">
+      <c r="D15" s="110">
         <v>16</v>
       </c>
-      <c r="E15" s="113">
+      <c r="E15" s="110">
         <v>17</v>
       </c>
-      <c r="F15" s="113">
+      <c r="F15" s="110">
         <v>18</v>
       </c>
-      <c r="G15" s="113">
+      <c r="G15" s="110">
         <v>18</v>
       </c>
-      <c r="H15" s="113">
+      <c r="H15" s="110">
         <v>20</v>
       </c>
-      <c r="I15" s="113">
+      <c r="I15" s="110">
         <v>21</v>
       </c>
-      <c r="J15" s="113">
+      <c r="J15" s="110">
         <v>19</v>
       </c>
-      <c r="K15" s="113">
+      <c r="K15" s="110">
         <v>20</v>
       </c>
-      <c r="L15" s="113">
+      <c r="L15" s="110">
         <v>19</v>
       </c>
-      <c r="M15" s="113">
+      <c r="M15" s="110">
         <v>18</v>
       </c>
-      <c r="N15" s="113">
+      <c r="N15" s="110">
         <v>20</v>
       </c>
-      <c r="O15" s="113">
+      <c r="O15" s="110">
         <v>16</v>
       </c>
-      <c r="P15" s="113">
+      <c r="P15" s="110">
         <v>18</v>
       </c>
-      <c r="Q15" s="114">
+      <c r="Q15" s="111">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="115">
+      <c r="C16" s="112">
         <v>22</v>
       </c>
-      <c r="D16" s="116">
+      <c r="D16" s="113">
         <v>26</v>
       </c>
-      <c r="E16" s="116">
+      <c r="E16" s="113">
         <v>25</v>
       </c>
-      <c r="F16" s="116">
+      <c r="F16" s="113">
         <v>24</v>
       </c>
-      <c r="G16" s="116">
+      <c r="G16" s="113">
         <v>26</v>
       </c>
-      <c r="H16" s="116">
+      <c r="H16" s="113">
         <v>21</v>
       </c>
-      <c r="I16" s="116">
+      <c r="I16" s="113">
         <v>23</v>
       </c>
-      <c r="J16" s="116">
+      <c r="J16" s="113">
         <v>27</v>
       </c>
-      <c r="K16" s="116">
+      <c r="K16" s="113">
         <v>23</v>
       </c>
-      <c r="L16" s="116">
+      <c r="L16" s="113">
         <v>28</v>
       </c>
-      <c r="M16" s="116">
+      <c r="M16" s="113">
         <v>23</v>
       </c>
-      <c r="N16" s="116">
+      <c r="N16" s="113">
         <v>24</v>
       </c>
-      <c r="O16" s="116">
+      <c r="O16" s="113">
         <v>28</v>
       </c>
-      <c r="P16" s="116">
+      <c r="P16" s="113">
         <v>23</v>
       </c>
-      <c r="Q16" s="117">
+      <c r="Q16" s="114">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="115">
+      <c r="C17" s="112">
         <v>25</v>
       </c>
-      <c r="D17" s="116">
+      <c r="D17" s="113">
         <v>26</v>
       </c>
-      <c r="E17" s="116">
+      <c r="E17" s="113">
         <v>23</v>
       </c>
-      <c r="F17" s="116">
+      <c r="F17" s="113">
         <v>22</v>
       </c>
-      <c r="G17" s="116">
+      <c r="G17" s="113">
         <v>26</v>
       </c>
-      <c r="H17" s="116">
+      <c r="H17" s="113">
         <v>23</v>
       </c>
-      <c r="I17" s="116">
+      <c r="I17" s="113">
         <v>28</v>
       </c>
-      <c r="J17" s="116">
+      <c r="J17" s="113">
         <v>25</v>
       </c>
-      <c r="K17" s="116">
+      <c r="K17" s="113">
         <v>25</v>
       </c>
-      <c r="L17" s="116">
+      <c r="L17" s="113">
         <v>25</v>
       </c>
-      <c r="M17" s="116">
+      <c r="M17" s="113">
         <v>22</v>
       </c>
-      <c r="N17" s="116">
+      <c r="N17" s="113">
         <v>23</v>
       </c>
-      <c r="O17" s="116">
+      <c r="O17" s="113">
         <v>24</v>
       </c>
-      <c r="P17" s="116">
+      <c r="P17" s="113">
         <v>22</v>
       </c>
-      <c r="Q17" s="117">
+      <c r="Q17" s="114">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="115">
+      <c r="C18" s="112">
         <v>30</v>
       </c>
-      <c r="D18" s="116">
+      <c r="D18" s="113">
         <v>28</v>
       </c>
-      <c r="E18" s="116">
+      <c r="E18" s="113">
         <v>26</v>
       </c>
-      <c r="F18" s="116">
+      <c r="F18" s="113">
         <v>28</v>
       </c>
-      <c r="G18" s="116">
+      <c r="G18" s="113">
         <v>26</v>
       </c>
-      <c r="H18" s="116">
+      <c r="H18" s="113">
         <v>27</v>
       </c>
-      <c r="I18" s="116">
+      <c r="I18" s="113">
         <v>24</v>
       </c>
-      <c r="J18" s="116">
+      <c r="J18" s="113">
         <v>26</v>
       </c>
-      <c r="K18" s="116">
+      <c r="K18" s="113">
         <v>22</v>
       </c>
-      <c r="L18" s="116">
+      <c r="L18" s="113">
         <v>27</v>
       </c>
-      <c r="M18" s="116">
+      <c r="M18" s="113">
         <v>21</v>
       </c>
-      <c r="N18" s="116">
+      <c r="N18" s="113">
         <v>26</v>
       </c>
-      <c r="O18" s="116">
+      <c r="O18" s="113">
         <v>27</v>
       </c>
-      <c r="P18" s="116">
+      <c r="P18" s="113">
         <v>31</v>
       </c>
-      <c r="Q18" s="117">
+      <c r="Q18" s="114">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="118">
+      <c r="C19" s="115">
         <v>22</v>
       </c>
-      <c r="D19" s="119">
+      <c r="D19" s="116">
         <v>21</v>
       </c>
-      <c r="E19" s="119">
+      <c r="E19" s="116">
         <v>23</v>
       </c>
-      <c r="F19" s="119">
+      <c r="F19" s="116">
         <v>24</v>
       </c>
-      <c r="G19" s="119">
+      <c r="G19" s="116">
         <v>24</v>
       </c>
-      <c r="H19" s="119">
+      <c r="H19" s="116">
         <v>26</v>
       </c>
-      <c r="I19" s="119">
+      <c r="I19" s="116">
         <v>25</v>
       </c>
-      <c r="J19" s="119">
+      <c r="J19" s="116">
         <v>27</v>
       </c>
-      <c r="K19" s="119">
+      <c r="K19" s="116">
         <v>24</v>
       </c>
-      <c r="L19" s="119">
+      <c r="L19" s="116">
         <v>24</v>
       </c>
-      <c r="M19" s="119">
+      <c r="M19" s="116">
         <v>26</v>
       </c>
-      <c r="N19" s="119">
+      <c r="N19" s="116">
         <v>25</v>
       </c>
-      <c r="O19" s="119">
+      <c r="O19" s="116">
         <v>26</v>
       </c>
-      <c r="P19" s="119">
+      <c r="P19" s="116">
         <v>24</v>
       </c>
-      <c r="Q19" s="120">
+      <c r="Q19" s="117">
         <v>23</v>
       </c>
     </row>
@@ -8714,370 +10485,4 @@
     <oddFooter>&amp;A</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:M15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.83203125" style="247" customWidth="1"/>
-    <col min="2" max="2" width="2.83203125" style="247" customWidth="1"/>
-    <col min="3" max="12" width="9.1640625" style="247" customWidth="1"/>
-    <col min="13" max="13" width="21.1640625" style="247" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.6640625" style="247"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="357" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="357"/>
-      <c r="C1" s="357"/>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="357"/>
-      <c r="J1" s="357"/>
-      <c r="K1" s="357"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="246" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="365" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="366"/>
-      <c r="C2" s="281">
-        <v>1</v>
-      </c>
-      <c r="D2" s="282">
-        <v>2</v>
-      </c>
-      <c r="E2" s="282">
-        <v>3</v>
-      </c>
-      <c r="F2" s="282">
-        <v>4</v>
-      </c>
-      <c r="G2" s="282">
-        <v>5</v>
-      </c>
-      <c r="H2" s="282">
-        <v>6</v>
-      </c>
-      <c r="I2" s="282">
-        <v>7</v>
-      </c>
-      <c r="J2" s="282">
-        <v>8</v>
-      </c>
-      <c r="K2" s="282">
-        <v>9</v>
-      </c>
-      <c r="L2" s="283">
-        <v>10</v>
-      </c>
-      <c r="M2" s="248"/>
-    </row>
-    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="364" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="246" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="284">
-        <v>-0.5</v>
-      </c>
-      <c r="D3" s="285">
-        <v>-0.3</v>
-      </c>
-      <c r="E3" s="285">
-        <v>-0.1</v>
-      </c>
-      <c r="F3" s="285">
-        <v>-0.8</v>
-      </c>
-      <c r="G3" s="285">
-        <v>-0.6</v>
-      </c>
-      <c r="H3" s="285">
-        <v>-0.7</v>
-      </c>
-      <c r="I3" s="285">
-        <v>-0.4</v>
-      </c>
-      <c r="J3" s="285">
-        <v>-0.2</v>
-      </c>
-      <c r="K3" s="285">
-        <v>-0.4</v>
-      </c>
-      <c r="L3" s="286">
-        <v>-0.1</v>
-      </c>
-      <c r="M3" s="250"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="364"/>
-      <c r="B4" s="246" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="284">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="285">
-        <v>900</v>
-      </c>
-      <c r="E4" s="285">
-        <v>800</v>
-      </c>
-      <c r="F4" s="285">
-        <v>700</v>
-      </c>
-      <c r="G4" s="285">
-        <v>600</v>
-      </c>
-      <c r="H4" s="285">
-        <v>500</v>
-      </c>
-      <c r="I4" s="285">
-        <v>400</v>
-      </c>
-      <c r="J4" s="285">
-        <v>300</v>
-      </c>
-      <c r="K4" s="285">
-        <v>200</v>
-      </c>
-      <c r="L4" s="286">
-        <v>100</v>
-      </c>
-      <c r="M4" s="250"/>
-    </row>
-    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="249" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="246"/>
-      <c r="C5" s="251"/>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="252"/>
-      <c r="K5" s="252"/>
-      <c r="L5" s="253"/>
-      <c r="M5" s="250"/>
-    </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="249" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="246"/>
-      <c r="C6" s="254"/>
-      <c r="D6" s="255"/>
-      <c r="E6" s="255"/>
-      <c r="F6" s="255"/>
-      <c r="G6" s="255"/>
-      <c r="H6" s="255"/>
-      <c r="I6" s="255"/>
-      <c r="J6" s="255"/>
-      <c r="K6" s="255"/>
-      <c r="L6" s="256"/>
-      <c r="M6" s="250"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="257" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="258"/>
-      <c r="D7" s="259"/>
-      <c r="E7" s="259"/>
-      <c r="F7" s="259"/>
-      <c r="G7" s="259"/>
-      <c r="H7" s="259"/>
-      <c r="I7" s="259"/>
-      <c r="J7" s="259"/>
-      <c r="K7" s="259"/>
-      <c r="L7" s="260"/>
-      <c r="M7" s="261"/>
-    </row>
-    <row r="8" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="262"/>
-      <c r="C8" s="358" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="359"/>
-      <c r="E8" s="359"/>
-      <c r="F8" s="359"/>
-      <c r="G8" s="359"/>
-      <c r="H8" s="359"/>
-      <c r="I8" s="359"/>
-      <c r="J8" s="359"/>
-      <c r="K8" s="359"/>
-      <c r="L8" s="360"/>
-      <c r="M8" s="263"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="249" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="246"/>
-      <c r="C9" s="287">
-        <v>200</v>
-      </c>
-      <c r="D9" s="288">
-        <v>500</v>
-      </c>
-      <c r="E9" s="288">
-        <v>100</v>
-      </c>
-      <c r="F9" s="288">
-        <v>150</v>
-      </c>
-      <c r="G9" s="288">
-        <v>450</v>
-      </c>
-      <c r="H9" s="288">
-        <v>500</v>
-      </c>
-      <c r="I9" s="288">
-        <v>170</v>
-      </c>
-      <c r="J9" s="288">
-        <v>320</v>
-      </c>
-      <c r="K9" s="288">
-        <v>550</v>
-      </c>
-      <c r="L9" s="289">
-        <v>600</v>
-      </c>
-      <c r="M9" s="250"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="264" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="265"/>
-      <c r="D10" s="266"/>
-      <c r="E10" s="266"/>
-      <c r="F10" s="266"/>
-      <c r="G10" s="266"/>
-      <c r="H10" s="266"/>
-      <c r="I10" s="266"/>
-      <c r="J10" s="266"/>
-      <c r="K10" s="266"/>
-      <c r="L10" s="267"/>
-      <c r="M10" s="261"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="249" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="246"/>
-      <c r="C11" s="268"/>
-      <c r="D11" s="269"/>
-      <c r="E11" s="269"/>
-      <c r="F11" s="269"/>
-      <c r="G11" s="269"/>
-      <c r="H11" s="270"/>
-      <c r="I11" s="270"/>
-      <c r="J11" s="270"/>
-      <c r="K11" s="270"/>
-      <c r="L11" s="250"/>
-      <c r="M11" s="290">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="264" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="262"/>
-      <c r="L12" s="271"/>
-      <c r="M12" s="261"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="264" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="272"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="273"/>
-      <c r="L13" s="274"/>
-      <c r="M13" s="291">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="277" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="275"/>
-      <c r="B14" s="276"/>
-      <c r="C14" s="361" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="362"/>
-      <c r="E14" s="362"/>
-      <c r="F14" s="362"/>
-      <c r="G14" s="362"/>
-      <c r="H14" s="362"/>
-      <c r="I14" s="362"/>
-      <c r="J14" s="362"/>
-      <c r="K14" s="362"/>
-      <c r="L14" s="363"/>
-      <c r="M14" s="292"/>
-    </row>
-    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="278"/>
-      <c r="C15" s="279"/>
-      <c r="D15" s="279"/>
-      <c r="E15" s="279"/>
-      <c r="F15" s="279"/>
-      <c r="G15" s="279"/>
-      <c r="H15" s="279"/>
-      <c r="I15" s="279"/>
-      <c r="J15" s="279"/>
-      <c r="K15" s="279"/>
-      <c r="L15" s="279"/>
-      <c r="M15" s="280"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
-  <phoneticPr fontId="59" type="noConversion"/>
-  <printOptions horizontalCentered="1" verticalCentered="1" headings="1" gridLines="1"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="110" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;LУправление операциями 
-- темы 17 - 20&amp;CРоссийско-французская программа МВА
-"Управление предприятием"&amp;RВ.П. Чернов, А.В. Чернов</oddHeader>
-    <oddFooter>&amp;A</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>